--- a/数据整理/stocks/A股/上证主板/600031-三一重工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600031-三一重工.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41740,7 +41741,6 @@
           <t>上投摩根双息平衡混合H</t>
         </is>
       </c>
-      <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
           <t>63.79</t>
@@ -41772,7 +41772,6 @@
           <t>华泰柏瑞量化增强混合C</t>
         </is>
       </c>
-      <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
           <t>89.44</t>
@@ -41804,7 +41803,6 @@
           <t>华泰柏瑞量化增强混合H</t>
         </is>
       </c>
-      <c r="D491" t="inlineStr"/>
       <c r="E491" t="inlineStr">
         <is>
           <t>89.44</t>
@@ -41836,7 +41834,6 @@
           <t>中欧睿达定期开放混合C</t>
         </is>
       </c>
-      <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
           <t>22.09</t>
@@ -41868,7 +41865,6 @@
           <t>工银瑞信灵活配置混合B</t>
         </is>
       </c>
-      <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr">
         <is>
           <t>73.66</t>
@@ -41900,7 +41896,6 @@
           <t>汇添富价值精选混合O</t>
         </is>
       </c>
-      <c r="D494" t="inlineStr"/>
       <c r="E494" t="inlineStr">
         <is>
           <t>84.28</t>
@@ -41932,7 +41927,6 @@
           <t>申万菱信安鑫慧选混合C</t>
         </is>
       </c>
-      <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
           <t>31.89</t>
@@ -41948,6 +41942,8108 @@
       </c>
       <c r="H495" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H213"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>115.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.5114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>166.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.4559</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>254.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.5886</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>224.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.7987</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国天益价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>134.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.7896</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>162.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.2812</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>149.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.8789</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.1573</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.0081</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.0536</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.9764</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.7930</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>57.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.7063</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.7002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.4157</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.1144</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.8773</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.8243</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>44.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.7595</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>67.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.7126</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5781</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5212</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>55.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.5169</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>55.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.4990</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>47.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.4774</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.4031</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>45.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.3951</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>58.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.3731</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.3654</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.1618</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.1602</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.1562</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.1558</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0805</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004746</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8980</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8728</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8715</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8280</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8156</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7993</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7415</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010446</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰金福三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7252</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010892</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6658</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6389</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5813</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5728</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5449</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5280</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5250</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4837</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4488</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4454</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4434</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4432</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4042</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3776</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3525</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3476</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3326</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2489</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519116</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浦银安盛沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>512770</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏战略新兴成指ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159973</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>弘毅远方国证民企领先100ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010700</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东方红锦丰优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002310</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002783</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001202</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东方红领先精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003015</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002315</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>519224</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>海富通欣荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>519050</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009156</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>海富通富泽混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005850</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>财通量化价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009154</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>海富通富盈混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>34.19</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>519130</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>519223</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>海富通欣荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>95.69</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>003579</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009155</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>海富通富盈混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011307</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>富国天益价值混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>002172</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>002339</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>002784</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>009157</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>海富通富泽混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>97.98</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>000688</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>景顺长城研究精选股票</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>75.35</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>510120</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>海富通上证非周期ETF</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>253010</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>国联安安心成长混合</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>008768</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>008769</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>501000</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>国金鑫新灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600031-三一重工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600031-三一重工.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50049,4 +50050,4768 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5067</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6353</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5689</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3345</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2531</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2259</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1249</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0890</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0649</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0187</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0139</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8456</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7630</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7514</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010446</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰金福三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6349</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6064</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5623</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5366</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5195</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012225</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4780</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4266</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3564</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3458</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000973</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华增盈回报债券</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2229</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011645</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>61.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010700</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红锦丰优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159973</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>弘毅远方国证民企领先100ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512770</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏战略新兴成指ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002783</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001202</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红领先精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>59.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011767</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰康合润混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002310</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002315</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>31.73</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010395</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010589</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>31.73</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009156</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>海富通富泽混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002784</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010396</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>60.95</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>000688</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>景顺长城研究精选股票</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011768</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>泰康合润混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012226</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009157</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>海富通富泽混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011646</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>61.29</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>510120</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>海富通上证非周期ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008768</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010590</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001311</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华安新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008769</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010605</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010606</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008441</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>九泰科新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>008442</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>九泰科新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600031-三一重工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600031-三一重工.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54814,4 +54815,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>124</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>212</v>
+      </c>
+      <c r="D3" t="n">
+        <v>133.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>494</v>
+      </c>
+      <c r="D4" t="n">
+        <v>277.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>597</v>
+      </c>
+      <c r="D5" t="n">
+        <v>382.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600031-三一重工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600031-三一重工.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54823,7 +54824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54834,17 +54835,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -54854,14 +54875,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>124</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.9</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7353</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -54870,14 +54913,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>212</v>
-      </c>
-      <c r="D3" t="n">
-        <v>133.02</v>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0308</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -54886,14 +54951,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>494</v>
-      </c>
-      <c r="D4" t="n">
-        <v>277.59</v>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9774</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -54902,13 +54989,3419 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7679</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6842</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010446</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金福三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5687</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5602</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011645</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2541</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2489</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>53.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004340</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康兴泰回报沪港深混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011767</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康合润混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>47.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>47.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>52.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011595</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>融通核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>33.36</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>53.43</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>33.36</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010395</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011768</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>泰康合润混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010396</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011646</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011596</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>融通核心趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>90</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>124</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>212</v>
+      </c>
+      <c r="D4" t="n">
+        <v>133.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>494</v>
+      </c>
+      <c r="D5" t="n">
+        <v>277.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>597</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>382.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600031-三一重工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600031-三一重工.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58300,7 +58301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58311,17 +58312,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -58331,14 +58352,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>90</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.42</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6950</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -58347,14 +58390,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>124</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.9</v>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8422</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -58363,14 +58428,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>212</v>
-      </c>
-      <c r="D4" t="n">
-        <v>133.02</v>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7359</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -58379,14 +58466,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>494</v>
-      </c>
-      <c r="D5" t="n">
-        <v>277.59</v>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6274</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -58395,13 +58504,2599 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6181</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5606</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010446</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金福三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5346</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3811</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3680</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003780</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华兴悦定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>32.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001327</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001328</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>96.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010395</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010396</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>124</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>212</v>
+      </c>
+      <c r="D5" t="n">
+        <v>133.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>494</v>
+      </c>
+      <c r="D6" t="n">
+        <v>277.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>597</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>382.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600031-三一重工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600031-三一重工.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -60979,7 +60980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60990,17 +60991,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -61010,14 +61031,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>69</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.57</v>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -61026,14 +61069,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.42</v>
+          <t>014043</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>134.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2033</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -61042,14 +61107,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>124</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.9</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -61058,14 +61145,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>212</v>
-      </c>
-      <c r="D5" t="n">
-        <v>133.02</v>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>128.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0249</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -61074,14 +61183,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>494</v>
-      </c>
-      <c r="D6" t="n">
-        <v>277.59</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9308</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -61090,13 +61221,5005 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8719</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7906</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7622</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6339</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>61.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5225</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5134</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4359</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8633</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>630009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7486</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7354</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006111</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康弘实3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6676</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6586</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6415</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6342</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014585</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6252</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6099</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013143</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6032</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6025</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010446</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰金福三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4854</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4571</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>206008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华丰盛债券</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>72.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4272</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3977</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3711</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013144</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3435</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3433</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3237</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3200</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3072</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014874</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2906</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2896</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>64.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011645</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>630109</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014586</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012308</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰价值远见两年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000841</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华金城灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002558</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001327</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>33.83</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012028</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012027</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>96.66</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001328</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>33.83</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014875</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002559</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011646</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>000843</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012309</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国泰价值远见两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>015589</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>133</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>69</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>124</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>212</v>
+      </c>
+      <c r="D6" t="n">
+        <v>133.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>494</v>
+      </c>
+      <c r="D7" t="n">
+        <v>277.59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>597</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>382.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600031-三一重工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600031-三一重工.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>49.91</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="D3" t="n">
-        <v>11.57</v>
+        <v>49.91</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>16.42</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
-        <v>33.9</v>
+        <v>16.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="D6" t="n">
-        <v>133.02</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>494</v>
+        <v>212</v>
       </c>
       <c r="D7" t="n">
-        <v>277.59</v>
+        <v>133.02</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>494</v>
+      </c>
+      <c r="D8" t="n">
+        <v>277.59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>597</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>382.08</v>
       </c>
     </row>
@@ -600,6 +617,2300 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2500</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1326</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0195</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7452</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6864</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6577</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5564</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4737</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010446</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金福三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4123</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3740</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3733</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3504</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3419</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159635</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3169</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159619</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>66.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通领先成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>60.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>31.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>31.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001327</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>31.16</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>60.88</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>31.16</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001328</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通领先成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015677</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5705,7 +8016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8383,7 +10694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11859,7 +14170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16623,7 +18934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24725,7 +27036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -43504,7 +45815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
